--- a/MixedRF/data/descriptive(raw).xlsx
+++ b/MixedRF/data/descriptive(raw).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="dsec_full" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="dsec_SK" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="dsec_US" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dsec_full" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dsec_SK" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dsec_US" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/MixedRF/data/descriptive(raw).xlsx
+++ b/MixedRF/data/descriptive(raw).xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,41 +1403,41 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>PERSPECT</t>
+          <t>PV1MATH</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6605</v>
+        <v>11488</v>
       </c>
       <c r="C29" t="n">
-        <v>42.51</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2240517183951496</v>
+        <v>504.053717009054</v>
       </c>
       <c r="E29" t="n">
-        <v>1.012406749781824</v>
+        <v>99.65462473272051</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.2053</v>
+        <v>158.032</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6081</v>
+        <v>435.87425</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1686</v>
+        <v>505.954</v>
       </c>
       <c r="I29" t="n">
-        <v>0.879</v>
+        <v>575.03625</v>
       </c>
       <c r="J29" t="n">
-        <v>1.9097</v>
+        <v>841.398</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PV1MATH</t>
+          <t>PV2MATH</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1447,31 +1447,31 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>504.053717009054</v>
+        <v>504.9307499129516</v>
       </c>
       <c r="E30" t="n">
-        <v>99.65462473272051</v>
+        <v>99.59571012004419</v>
       </c>
       <c r="F30" t="n">
-        <v>158.032</v>
+        <v>76.178</v>
       </c>
       <c r="G30" t="n">
-        <v>435.87425</v>
+        <v>436.05075</v>
       </c>
       <c r="H30" t="n">
-        <v>505.954</v>
+        <v>506.4125</v>
       </c>
       <c r="I30" t="n">
-        <v>575.03625</v>
+        <v>574.0715</v>
       </c>
       <c r="J30" t="n">
-        <v>841.398</v>
+        <v>858.033</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>PV2MATH</t>
+          <t>PV3MATH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1481,31 +1481,31 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>504.9307499129516</v>
+        <v>504.8327133530638</v>
       </c>
       <c r="E31" t="n">
-        <v>99.59571012004419</v>
+        <v>100.3433052372529</v>
       </c>
       <c r="F31" t="n">
-        <v>76.178</v>
+        <v>102.524</v>
       </c>
       <c r="G31" t="n">
-        <v>436.05075</v>
+        <v>436.1145</v>
       </c>
       <c r="H31" t="n">
-        <v>506.4125</v>
+        <v>506.172</v>
       </c>
       <c r="I31" t="n">
-        <v>574.0715</v>
+        <v>574.702</v>
       </c>
       <c r="J31" t="n">
-        <v>858.033</v>
+        <v>910.443</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>PV3MATH</t>
+          <t>PV4MATH</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1515,31 +1515,31 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>504.8327133530638</v>
+        <v>504.4493108461002</v>
       </c>
       <c r="E32" t="n">
-        <v>100.3433052372529</v>
+        <v>100.1561896497474</v>
       </c>
       <c r="F32" t="n">
-        <v>102.524</v>
+        <v>126.684</v>
       </c>
       <c r="G32" t="n">
-        <v>436.1145</v>
+        <v>435.09975</v>
       </c>
       <c r="H32" t="n">
-        <v>506.172</v>
+        <v>506.4885</v>
       </c>
       <c r="I32" t="n">
-        <v>574.702</v>
+        <v>573.424</v>
       </c>
       <c r="J32" t="n">
-        <v>910.443</v>
+        <v>846.9450000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>PV4MATH</t>
+          <t>PV5MATH</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1549,31 +1549,31 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>504.4493108461002</v>
+        <v>504.5923730849583</v>
       </c>
       <c r="E33" t="n">
-        <v>100.1561896497474</v>
+        <v>100.8244884937698</v>
       </c>
       <c r="F33" t="n">
-        <v>126.684</v>
+        <v>101.573</v>
       </c>
       <c r="G33" t="n">
-        <v>435.09975</v>
+        <v>435.0945</v>
       </c>
       <c r="H33" t="n">
-        <v>506.4885</v>
+        <v>506.8665</v>
       </c>
       <c r="I33" t="n">
-        <v>573.424</v>
+        <v>574.84475</v>
       </c>
       <c r="J33" t="n">
-        <v>846.9450000000001</v>
+        <v>915.101</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>PV5MATH</t>
+          <t>PV6MATH</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1583,31 +1583,31 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>504.5923730849583</v>
+        <v>504.9605165389956</v>
       </c>
       <c r="E34" t="n">
-        <v>100.8244884937698</v>
+        <v>100.3140778015277</v>
       </c>
       <c r="F34" t="n">
-        <v>101.573</v>
+        <v>144.853</v>
       </c>
       <c r="G34" t="n">
-        <v>435.0945</v>
+        <v>435.5925</v>
       </c>
       <c r="H34" t="n">
-        <v>506.8665</v>
+        <v>505.3535</v>
       </c>
       <c r="I34" t="n">
-        <v>574.84475</v>
+        <v>575.168</v>
       </c>
       <c r="J34" t="n">
-        <v>915.101</v>
+        <v>846.628</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>PV6MATH</t>
+          <t>PV7MATH</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1617,31 +1617,31 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>504.9605165389956</v>
+        <v>504.8595453516715</v>
       </c>
       <c r="E35" t="n">
-        <v>100.3140778015277</v>
+        <v>100.690298089735</v>
       </c>
       <c r="F35" t="n">
-        <v>144.853</v>
+        <v>173.977</v>
       </c>
       <c r="G35" t="n">
-        <v>435.5925</v>
+        <v>434.30775</v>
       </c>
       <c r="H35" t="n">
-        <v>505.3535</v>
+        <v>506.106</v>
       </c>
       <c r="I35" t="n">
-        <v>575.168</v>
+        <v>575.42175</v>
       </c>
       <c r="J35" t="n">
-        <v>846.628</v>
+        <v>845.192</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>PV7MATH</t>
+          <t>PV8MATH</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1651,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>504.8595453516715</v>
+        <v>504.4839881615595</v>
       </c>
       <c r="E36" t="n">
-        <v>100.690298089735</v>
+        <v>100.0862077068238</v>
       </c>
       <c r="F36" t="n">
-        <v>173.977</v>
+        <v>154.092</v>
       </c>
       <c r="G36" t="n">
-        <v>434.30775</v>
+        <v>436.23425</v>
       </c>
       <c r="H36" t="n">
-        <v>506.106</v>
+        <v>504.4535</v>
       </c>
       <c r="I36" t="n">
-        <v>575.42175</v>
+        <v>575.65725</v>
       </c>
       <c r="J36" t="n">
-        <v>845.192</v>
+        <v>889.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>PV8MATH</t>
+          <t>PV9MATH</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1685,31 +1685,31 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>504.4839881615595</v>
+        <v>505.5088245995822</v>
       </c>
       <c r="E37" t="n">
-        <v>100.0862077068238</v>
+        <v>100.7407138442516</v>
       </c>
       <c r="F37" t="n">
-        <v>154.092</v>
+        <v>125.872</v>
       </c>
       <c r="G37" t="n">
-        <v>436.23425</v>
+        <v>435.7385</v>
       </c>
       <c r="H37" t="n">
-        <v>504.4535</v>
+        <v>506.847</v>
       </c>
       <c r="I37" t="n">
-        <v>575.65725</v>
+        <v>576.07475</v>
       </c>
       <c r="J37" t="n">
-        <v>889.8</v>
+        <v>890.585</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>PV9MATH</t>
+          <t>PV10MATH</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1719,31 +1719,31 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>505.5088245995822</v>
+        <v>504.4022475626747</v>
       </c>
       <c r="E38" t="n">
-        <v>100.7407138442516</v>
+        <v>100.8109426019605</v>
       </c>
       <c r="F38" t="n">
-        <v>125.872</v>
+        <v>126.573</v>
       </c>
       <c r="G38" t="n">
-        <v>435.7385</v>
+        <v>435.38225</v>
       </c>
       <c r="H38" t="n">
-        <v>506.847</v>
+        <v>506.4965</v>
       </c>
       <c r="I38" t="n">
-        <v>576.07475</v>
+        <v>574.61475</v>
       </c>
       <c r="J38" t="n">
-        <v>890.585</v>
+        <v>868.665</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>PV10MATH</t>
+          <t>PV1READ</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1753,31 +1753,31 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>504.4022475626747</v>
+        <v>509.0803229456813</v>
       </c>
       <c r="E39" t="n">
-        <v>100.8109426019605</v>
+        <v>104.6035409234799</v>
       </c>
       <c r="F39" t="n">
-        <v>126.573</v>
+        <v>89.43300000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>435.38225</v>
+        <v>438.95625</v>
       </c>
       <c r="H39" t="n">
-        <v>506.4965</v>
+        <v>515.694</v>
       </c>
       <c r="I39" t="n">
-        <v>574.61475</v>
+        <v>583.454</v>
       </c>
       <c r="J39" t="n">
-        <v>868.665</v>
+        <v>868.87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>PV1READ</t>
+          <t>PV2READ</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1787,31 +1787,31 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>509.0803229456813</v>
+        <v>508.8785504004159</v>
       </c>
       <c r="E40" t="n">
-        <v>104.6035409234799</v>
+        <v>104.0806239884591</v>
       </c>
       <c r="F40" t="n">
-        <v>89.43300000000001</v>
+        <v>147.146</v>
       </c>
       <c r="G40" t="n">
-        <v>438.95625</v>
+        <v>439.54975</v>
       </c>
       <c r="H40" t="n">
-        <v>515.694</v>
+        <v>515.8765000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>583.454</v>
+        <v>583.2202500000001</v>
       </c>
       <c r="J40" t="n">
-        <v>868.87</v>
+        <v>898.478</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>PV2READ</t>
+          <t>PV3READ</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1821,31 +1821,31 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>508.8785504004159</v>
+        <v>509.1990110550141</v>
       </c>
       <c r="E41" t="n">
-        <v>104.0806239884591</v>
+        <v>104.5737725990931</v>
       </c>
       <c r="F41" t="n">
-        <v>147.146</v>
+        <v>132.423</v>
       </c>
       <c r="G41" t="n">
-        <v>439.54975</v>
+        <v>438.8715</v>
       </c>
       <c r="H41" t="n">
-        <v>515.8765000000001</v>
+        <v>515.1415</v>
       </c>
       <c r="I41" t="n">
-        <v>583.2202500000001</v>
+        <v>583.0409999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>898.478</v>
+        <v>858.393</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>PV3READ</t>
+          <t>PV4READ</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1855,31 +1855,31 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>509.1990110550141</v>
+        <v>509.8568803098882</v>
       </c>
       <c r="E42" t="n">
-        <v>104.5737725990931</v>
+        <v>104.713352741526</v>
       </c>
       <c r="F42" t="n">
-        <v>132.423</v>
+        <v>135.267</v>
       </c>
       <c r="G42" t="n">
-        <v>438.8715</v>
+        <v>440.32625</v>
       </c>
       <c r="H42" t="n">
-        <v>515.1415</v>
+        <v>516.2915</v>
       </c>
       <c r="I42" t="n">
-        <v>583.0409999999999</v>
+        <v>584.0445</v>
       </c>
       <c r="J42" t="n">
-        <v>858.393</v>
+        <v>863.567</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>PV4READ</t>
+          <t>PV5READ</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1889,31 +1889,31 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>509.8568803098882</v>
+        <v>509.5296938544569</v>
       </c>
       <c r="E43" t="n">
-        <v>104.713352741526</v>
+        <v>104.3023594440071</v>
       </c>
       <c r="F43" t="n">
-        <v>135.267</v>
+        <v>137.737</v>
       </c>
       <c r="G43" t="n">
-        <v>440.32625</v>
+        <v>439.2215</v>
       </c>
       <c r="H43" t="n">
-        <v>516.2915</v>
+        <v>516.099</v>
       </c>
       <c r="I43" t="n">
-        <v>584.0445</v>
+        <v>583.529</v>
       </c>
       <c r="J43" t="n">
-        <v>863.567</v>
+        <v>853.4880000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>PV5READ</t>
+          <t>PV6READ</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1923,31 +1923,31 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>509.5296938544569</v>
+        <v>509.4671522458221</v>
       </c>
       <c r="E44" t="n">
-        <v>104.3023594440071</v>
+        <v>104.7176425363472</v>
       </c>
       <c r="F44" t="n">
-        <v>137.737</v>
+        <v>128.111</v>
       </c>
       <c r="G44" t="n">
-        <v>439.2215</v>
+        <v>439.97275</v>
       </c>
       <c r="H44" t="n">
-        <v>516.099</v>
+        <v>515.7094999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>583.529</v>
+        <v>583.611</v>
       </c>
       <c r="J44" t="n">
-        <v>853.4880000000001</v>
+        <v>844.836</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>PV6READ</t>
+          <t>PV7READ</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1957,31 +1957,31 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>509.4671522458221</v>
+        <v>509.6099473363516</v>
       </c>
       <c r="E45" t="n">
-        <v>104.7176425363472</v>
+        <v>104.5264128498475</v>
       </c>
       <c r="F45" t="n">
-        <v>128.111</v>
+        <v>148.739</v>
       </c>
       <c r="G45" t="n">
-        <v>439.97275</v>
+        <v>440.39075</v>
       </c>
       <c r="H45" t="n">
-        <v>515.7094999999999</v>
+        <v>515.322</v>
       </c>
       <c r="I45" t="n">
-        <v>583.611</v>
+        <v>584.02975</v>
       </c>
       <c r="J45" t="n">
-        <v>844.836</v>
+        <v>841.978</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>PV7READ</t>
+          <t>PV8READ</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1991,31 +1991,31 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>509.6099473363516</v>
+        <v>509.1270795612816</v>
       </c>
       <c r="E46" t="n">
-        <v>104.5264128498475</v>
+        <v>104.6363960818384</v>
       </c>
       <c r="F46" t="n">
-        <v>148.739</v>
+        <v>170.907</v>
       </c>
       <c r="G46" t="n">
-        <v>440.39075</v>
+        <v>438.72075</v>
       </c>
       <c r="H46" t="n">
-        <v>515.322</v>
+        <v>515.6279999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>584.02975</v>
+        <v>583.8645</v>
       </c>
       <c r="J46" t="n">
-        <v>841.978</v>
+        <v>823.427</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>PV8READ</t>
+          <t>PV9READ</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2025,31 +2025,31 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>509.1270795612816</v>
+        <v>509.6212199686636</v>
       </c>
       <c r="E47" t="n">
-        <v>104.6363960818384</v>
+        <v>104.1878085689502</v>
       </c>
       <c r="F47" t="n">
-        <v>170.907</v>
+        <v>158.571</v>
       </c>
       <c r="G47" t="n">
-        <v>438.72075</v>
+        <v>439.82125</v>
       </c>
       <c r="H47" t="n">
-        <v>515.6279999999999</v>
+        <v>516.144</v>
       </c>
       <c r="I47" t="n">
-        <v>583.8645</v>
+        <v>583.0062499999999</v>
       </c>
       <c r="J47" t="n">
-        <v>823.427</v>
+        <v>831.461</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>PV9READ</t>
+          <t>PV10READ</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2059,31 +2059,31 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>509.6212199686636</v>
+        <v>509.1837249303627</v>
       </c>
       <c r="E48" t="n">
-        <v>104.1878085689502</v>
+        <v>104.5064840963915</v>
       </c>
       <c r="F48" t="n">
-        <v>158.571</v>
+        <v>141.403</v>
       </c>
       <c r="G48" t="n">
-        <v>439.82125</v>
+        <v>440.498</v>
       </c>
       <c r="H48" t="n">
-        <v>516.144</v>
+        <v>515.548</v>
       </c>
       <c r="I48" t="n">
-        <v>583.0062499999999</v>
+        <v>583.6255</v>
       </c>
       <c r="J48" t="n">
-        <v>831.461</v>
+        <v>834.091</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>PV10READ</t>
+          <t>PV1SCIE</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2093,31 +2093,31 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>509.1837249303627</v>
+        <v>510.7024520369102</v>
       </c>
       <c r="E49" t="n">
-        <v>104.5064840963915</v>
+        <v>99.16707757618492</v>
       </c>
       <c r="F49" t="n">
-        <v>141.403</v>
+        <v>132.724</v>
       </c>
       <c r="G49" t="n">
-        <v>440.498</v>
+        <v>441.73075</v>
       </c>
       <c r="H49" t="n">
-        <v>515.548</v>
+        <v>514.6185</v>
       </c>
       <c r="I49" t="n">
-        <v>583.6255</v>
+        <v>581.82925</v>
       </c>
       <c r="J49" t="n">
-        <v>834.091</v>
+        <v>843.433</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>PV1SCIE</t>
+          <t>PV2SCIE</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2127,31 +2127,31 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>510.7024520369102</v>
+        <v>510.1897125696393</v>
       </c>
       <c r="E50" t="n">
-        <v>99.16707757618492</v>
+        <v>99.04700367766068</v>
       </c>
       <c r="F50" t="n">
-        <v>132.724</v>
+        <v>143.115</v>
       </c>
       <c r="G50" t="n">
-        <v>441.73075</v>
+        <v>441.6215</v>
       </c>
       <c r="H50" t="n">
-        <v>514.6185</v>
+        <v>513.6725</v>
       </c>
       <c r="I50" t="n">
-        <v>581.82925</v>
+        <v>580.65825</v>
       </c>
       <c r="J50" t="n">
-        <v>843.433</v>
+        <v>832.342</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>PV2SCIE</t>
+          <t>PV3SCIE</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2161,31 +2161,31 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>510.1897125696393</v>
+        <v>510.3404161734008</v>
       </c>
       <c r="E51" t="n">
-        <v>99.04700367766068</v>
+        <v>99.66184100495559</v>
       </c>
       <c r="F51" t="n">
-        <v>143.115</v>
+        <v>45.083</v>
       </c>
       <c r="G51" t="n">
-        <v>441.6215</v>
+        <v>441.046</v>
       </c>
       <c r="H51" t="n">
-        <v>513.6725</v>
+        <v>514.0605</v>
       </c>
       <c r="I51" t="n">
-        <v>580.65825</v>
+        <v>582.3915</v>
       </c>
       <c r="J51" t="n">
-        <v>832.342</v>
+        <v>856.971</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>PV3SCIE</t>
+          <t>PV4SCIE</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2195,31 +2195,31 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>510.3404161734008</v>
+        <v>510.88612961351</v>
       </c>
       <c r="E52" t="n">
-        <v>99.66184100495559</v>
+        <v>98.94307307031781</v>
       </c>
       <c r="F52" t="n">
-        <v>45.083</v>
+        <v>151.524</v>
       </c>
       <c r="G52" t="n">
-        <v>441.046</v>
+        <v>442.74275</v>
       </c>
       <c r="H52" t="n">
-        <v>514.0605</v>
+        <v>515.7809999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>582.3915</v>
+        <v>581.0895</v>
       </c>
       <c r="J52" t="n">
-        <v>856.971</v>
+        <v>863.943</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>PV4SCIE</t>
+          <t>PV5SCIE</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2229,31 +2229,31 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>510.88612961351</v>
+        <v>510.7610221100282</v>
       </c>
       <c r="E53" t="n">
-        <v>98.94307307031781</v>
+        <v>98.52066211082123</v>
       </c>
       <c r="F53" t="n">
-        <v>151.524</v>
+        <v>154.925</v>
       </c>
       <c r="G53" t="n">
-        <v>442.74275</v>
+        <v>442.6975</v>
       </c>
       <c r="H53" t="n">
-        <v>515.7809999999999</v>
+        <v>514.46</v>
       </c>
       <c r="I53" t="n">
-        <v>581.0895</v>
+        <v>581.6945000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>863.943</v>
+        <v>874.875</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>PV5SCIE</t>
+          <t>PV6SCIE</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2263,31 +2263,31 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>510.7610221100282</v>
+        <v>511.3968411385777</v>
       </c>
       <c r="E54" t="n">
-        <v>98.52066211082123</v>
+        <v>98.50689968108163</v>
       </c>
       <c r="F54" t="n">
-        <v>154.925</v>
+        <v>113.511</v>
       </c>
       <c r="G54" t="n">
-        <v>442.6975</v>
+        <v>443.118</v>
       </c>
       <c r="H54" t="n">
-        <v>514.46</v>
+        <v>514.1600000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>581.6945000000001</v>
+        <v>581.5215000000001</v>
       </c>
       <c r="J54" t="n">
-        <v>874.875</v>
+        <v>891.497</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>PV6SCIE</t>
+          <t>PV7SCIE</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2297,31 +2297,31 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>511.3968411385777</v>
+        <v>510.4677534818941</v>
       </c>
       <c r="E55" t="n">
-        <v>98.50689968108163</v>
+        <v>98.50911787684177</v>
       </c>
       <c r="F55" t="n">
-        <v>113.511</v>
+        <v>139.919</v>
       </c>
       <c r="G55" t="n">
-        <v>443.118</v>
+        <v>442.20875</v>
       </c>
       <c r="H55" t="n">
-        <v>514.1600000000001</v>
+        <v>514.1079999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>581.5215000000001</v>
+        <v>580.706</v>
       </c>
       <c r="J55" t="n">
-        <v>891.497</v>
+        <v>877.496</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>PV7SCIE</t>
+          <t>PV8SCIE</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2331,31 +2331,31 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>510.4677534818941</v>
+        <v>510.2580430013921</v>
       </c>
       <c r="E56" t="n">
-        <v>98.50911787684177</v>
+        <v>99.42060757431777</v>
       </c>
       <c r="F56" t="n">
-        <v>139.919</v>
+        <v>133.49</v>
       </c>
       <c r="G56" t="n">
-        <v>442.20875</v>
+        <v>442.621</v>
       </c>
       <c r="H56" t="n">
-        <v>514.1079999999999</v>
+        <v>513.8815</v>
       </c>
       <c r="I56" t="n">
-        <v>580.706</v>
+        <v>582.4422500000001</v>
       </c>
       <c r="J56" t="n">
-        <v>877.496</v>
+        <v>847.436</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>PV8SCIE</t>
+          <t>PV9SCIE</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2365,31 +2365,31 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>510.2580430013921</v>
+        <v>510.9983760445684</v>
       </c>
       <c r="E57" t="n">
-        <v>99.42060757431777</v>
+        <v>98.13038982742766</v>
       </c>
       <c r="F57" t="n">
-        <v>133.49</v>
+        <v>151.015</v>
       </c>
       <c r="G57" t="n">
-        <v>442.621</v>
+        <v>441.58925</v>
       </c>
       <c r="H57" t="n">
-        <v>513.8815</v>
+        <v>514.7315</v>
       </c>
       <c r="I57" t="n">
-        <v>582.4422500000001</v>
+        <v>582.93625</v>
       </c>
       <c r="J57" t="n">
-        <v>847.436</v>
+        <v>883.038</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>PV9SCIE</t>
+          <t>PV10SCIE</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2399,92 +2399,58 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>510.9983760445684</v>
+        <v>511.4452306754895</v>
       </c>
       <c r="E58" t="n">
-        <v>98.13038982742766</v>
+        <v>99.16610147677082</v>
       </c>
       <c r="F58" t="n">
-        <v>151.015</v>
+        <v>109.361</v>
       </c>
       <c r="G58" t="n">
-        <v>441.58925</v>
+        <v>443.7005</v>
       </c>
       <c r="H58" t="n">
-        <v>514.7315</v>
+        <v>516.0865</v>
       </c>
       <c r="I58" t="n">
-        <v>582.93625</v>
+        <v>581.9712500000001</v>
       </c>
       <c r="J58" t="n">
-        <v>883.038</v>
+        <v>854.952</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>PV10SCIE</t>
+          <t>ESCS</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>11488</v>
+        <v>11393</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="D59" t="n">
-        <v>511.4452306754895</v>
+        <v>0.0764656192398839</v>
       </c>
       <c r="E59" t="n">
-        <v>99.16610147677082</v>
+        <v>0.8804945035329155</v>
       </c>
       <c r="F59" t="n">
-        <v>109.361</v>
+        <v>-4.0953</v>
       </c>
       <c r="G59" t="n">
-        <v>443.7005</v>
+        <v>-0.5295</v>
       </c>
       <c r="H59" t="n">
-        <v>516.0865</v>
+        <v>0.1551</v>
       </c>
       <c r="I59" t="n">
-        <v>581.9712500000001</v>
+        <v>0.7192</v>
       </c>
       <c r="J59" t="n">
-        <v>854.952</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>ESCS</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>11393</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.0764656192398839</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.8804945035329155</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-4.0953</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-0.5295</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.1551</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.7192</v>
-      </c>
-      <c r="J60" t="n">
         <v>3.9591</v>
       </c>
     </row>
@@ -2499,7 +2465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3475,41 +3441,41 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>PERSPECT</t>
+          <t>PV1MATH</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6605</v>
+        <v>6650</v>
       </c>
       <c r="C29" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2240517183951496</v>
+        <v>526.5420505263157</v>
       </c>
       <c r="E29" t="n">
-        <v>1.012406749781824</v>
+        <v>99.19172652690065</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.2053</v>
+        <v>158.032</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6081</v>
+        <v>460.571</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1686</v>
+        <v>530.9485</v>
       </c>
       <c r="I29" t="n">
-        <v>0.879</v>
+        <v>596.5777499999999</v>
       </c>
       <c r="J29" t="n">
-        <v>1.9097</v>
+        <v>841.398</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PV1MATH</t>
+          <t>PV2MATH</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3519,31 +3485,31 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>526.5420505263157</v>
+        <v>527.8585024060133</v>
       </c>
       <c r="E30" t="n">
-        <v>99.19172652690065</v>
+        <v>99.27982616151662</v>
       </c>
       <c r="F30" t="n">
-        <v>158.032</v>
+        <v>76.178</v>
       </c>
       <c r="G30" t="n">
-        <v>460.571</v>
+        <v>462.8435</v>
       </c>
       <c r="H30" t="n">
-        <v>530.9485</v>
+        <v>532.066</v>
       </c>
       <c r="I30" t="n">
-        <v>596.5777499999999</v>
+        <v>596.25</v>
       </c>
       <c r="J30" t="n">
-        <v>841.398</v>
+        <v>858.033</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>PV2MATH</t>
+          <t>PV3MATH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3553,31 +3519,31 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>527.8585024060133</v>
+        <v>527.559558646616</v>
       </c>
       <c r="E31" t="n">
-        <v>99.27982616151662</v>
+        <v>100.2656139280498</v>
       </c>
       <c r="F31" t="n">
-        <v>76.178</v>
+        <v>102.524</v>
       </c>
       <c r="G31" t="n">
-        <v>462.8435</v>
+        <v>460.59275</v>
       </c>
       <c r="H31" t="n">
-        <v>532.066</v>
+        <v>531.027</v>
       </c>
       <c r="I31" t="n">
-        <v>596.25</v>
+        <v>596.23325</v>
       </c>
       <c r="J31" t="n">
-        <v>858.033</v>
+        <v>910.443</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>PV3MATH</t>
+          <t>PV4MATH</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3587,31 +3553,31 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>527.559558646616</v>
+        <v>526.6512550375953</v>
       </c>
       <c r="E32" t="n">
-        <v>100.2656139280498</v>
+        <v>100.2105568684764</v>
       </c>
       <c r="F32" t="n">
-        <v>102.524</v>
+        <v>168.186</v>
       </c>
       <c r="G32" t="n">
-        <v>460.59275</v>
+        <v>460.5845</v>
       </c>
       <c r="H32" t="n">
-        <v>531.027</v>
+        <v>530.6320000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>596.23325</v>
+        <v>596.16725</v>
       </c>
       <c r="J32" t="n">
-        <v>910.443</v>
+        <v>846.9450000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>PV4MATH</t>
+          <t>PV5MATH</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3621,31 +3587,31 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>526.6512550375953</v>
+        <v>527.7084920300747</v>
       </c>
       <c r="E33" t="n">
-        <v>100.2105568684764</v>
+        <v>100.7926690056056</v>
       </c>
       <c r="F33" t="n">
-        <v>168.186</v>
+        <v>101.573</v>
       </c>
       <c r="G33" t="n">
-        <v>460.5845</v>
+        <v>461.95525</v>
       </c>
       <c r="H33" t="n">
-        <v>530.6320000000001</v>
+        <v>532.7645</v>
       </c>
       <c r="I33" t="n">
-        <v>596.16725</v>
+        <v>598.2910000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>846.9450000000001</v>
+        <v>915.101</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>PV5MATH</t>
+          <t>PV6MATH</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3655,31 +3621,31 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>527.7084920300747</v>
+        <v>527.675603308269</v>
       </c>
       <c r="E34" t="n">
-        <v>100.7926690056056</v>
+        <v>100.381885929405</v>
       </c>
       <c r="F34" t="n">
-        <v>101.573</v>
+        <v>149.15</v>
       </c>
       <c r="G34" t="n">
-        <v>461.95525</v>
+        <v>461.57225</v>
       </c>
       <c r="H34" t="n">
-        <v>532.7645</v>
+        <v>530.4549999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>598.2910000000001</v>
+        <v>598.6755000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>915.101</v>
+        <v>846.628</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>PV6MATH</t>
+          <t>PV7MATH</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3689,31 +3655,31 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>527.675603308269</v>
+        <v>528.3990803007517</v>
       </c>
       <c r="E35" t="n">
-        <v>100.381885929405</v>
+        <v>99.95087262945057</v>
       </c>
       <c r="F35" t="n">
-        <v>149.15</v>
+        <v>173.977</v>
       </c>
       <c r="G35" t="n">
-        <v>461.57225</v>
+        <v>459.897</v>
       </c>
       <c r="H35" t="n">
-        <v>530.4549999999999</v>
+        <v>532.6815</v>
       </c>
       <c r="I35" t="n">
-        <v>598.6755000000001</v>
+        <v>597.184</v>
       </c>
       <c r="J35" t="n">
-        <v>846.628</v>
+        <v>845.192</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>PV7MATH</t>
+          <t>PV8MATH</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3723,31 +3689,31 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>528.3990803007517</v>
+        <v>527.2106260150381</v>
       </c>
       <c r="E36" t="n">
-        <v>99.95087262945057</v>
+        <v>99.4817945193749</v>
       </c>
       <c r="F36" t="n">
-        <v>173.977</v>
+        <v>154.092</v>
       </c>
       <c r="G36" t="n">
-        <v>459.897</v>
+        <v>461.43225</v>
       </c>
       <c r="H36" t="n">
-        <v>532.6815</v>
+        <v>531.064</v>
       </c>
       <c r="I36" t="n">
-        <v>597.184</v>
+        <v>595.87675</v>
       </c>
       <c r="J36" t="n">
-        <v>845.192</v>
+        <v>889.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>PV8MATH</t>
+          <t>PV9MATH</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3757,31 +3723,31 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>527.2106260150381</v>
+        <v>528.4184834586482</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4817945193749</v>
+        <v>100.5785894683701</v>
       </c>
       <c r="F37" t="n">
-        <v>154.092</v>
+        <v>168.877</v>
       </c>
       <c r="G37" t="n">
-        <v>461.43225</v>
+        <v>460.3295</v>
       </c>
       <c r="H37" t="n">
-        <v>531.064</v>
+        <v>531.374</v>
       </c>
       <c r="I37" t="n">
-        <v>595.87675</v>
+        <v>597.2819999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>889.8</v>
+        <v>890.585</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>PV9MATH</t>
+          <t>PV10MATH</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3791,31 +3757,31 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>528.4184834586482</v>
+        <v>527.4601715789486</v>
       </c>
       <c r="E38" t="n">
-        <v>100.5785894683701</v>
+        <v>100.0088479433893</v>
       </c>
       <c r="F38" t="n">
-        <v>168.877</v>
+        <v>126.573</v>
       </c>
       <c r="G38" t="n">
-        <v>460.3295</v>
+        <v>462.4975</v>
       </c>
       <c r="H38" t="n">
-        <v>531.374</v>
+        <v>532.8405</v>
       </c>
       <c r="I38" t="n">
-        <v>597.2819999999999</v>
+        <v>595.8657499999999</v>
       </c>
       <c r="J38" t="n">
-        <v>890.585</v>
+        <v>868.665</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>PV10MATH</t>
+          <t>PV1READ</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3825,31 +3791,31 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>527.4601715789486</v>
+        <v>515.577169924813</v>
       </c>
       <c r="E39" t="n">
-        <v>100.0088479433893</v>
+        <v>101.2243383024219</v>
       </c>
       <c r="F39" t="n">
-        <v>126.573</v>
+        <v>89.43300000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>462.4975</v>
+        <v>450.36725</v>
       </c>
       <c r="H39" t="n">
-        <v>532.8405</v>
+        <v>522.678</v>
       </c>
       <c r="I39" t="n">
-        <v>595.8657499999999</v>
+        <v>586.7055</v>
       </c>
       <c r="J39" t="n">
-        <v>868.665</v>
+        <v>835.337</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>PV1READ</t>
+          <t>PV2READ</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3859,31 +3825,31 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>515.577169924813</v>
+        <v>514.7625992481194</v>
       </c>
       <c r="E40" t="n">
-        <v>101.2243383024219</v>
+        <v>100.770033980902</v>
       </c>
       <c r="F40" t="n">
-        <v>89.43300000000001</v>
+        <v>147.146</v>
       </c>
       <c r="G40" t="n">
-        <v>450.36725</v>
+        <v>450.818</v>
       </c>
       <c r="H40" t="n">
-        <v>522.678</v>
+        <v>523.6985</v>
       </c>
       <c r="I40" t="n">
-        <v>586.7055</v>
+        <v>585.6485</v>
       </c>
       <c r="J40" t="n">
-        <v>835.337</v>
+        <v>779.585</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>PV2READ</t>
+          <t>PV3READ</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3893,31 +3859,31 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>514.7625992481194</v>
+        <v>515.6708744360915</v>
       </c>
       <c r="E41" t="n">
-        <v>100.770033980902</v>
+        <v>101.6070901264381</v>
       </c>
       <c r="F41" t="n">
-        <v>147.146</v>
+        <v>153.665</v>
       </c>
       <c r="G41" t="n">
-        <v>450.818</v>
+        <v>450.4335</v>
       </c>
       <c r="H41" t="n">
-        <v>523.6985</v>
+        <v>522.2085</v>
       </c>
       <c r="I41" t="n">
-        <v>585.6485</v>
+        <v>586.3235</v>
       </c>
       <c r="J41" t="n">
-        <v>779.585</v>
+        <v>824.149</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>PV3READ</t>
+          <t>PV4READ</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3927,31 +3893,31 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>515.6708744360915</v>
+        <v>516.2293028571427</v>
       </c>
       <c r="E42" t="n">
-        <v>101.6070901264381</v>
+        <v>101.4163252213869</v>
       </c>
       <c r="F42" t="n">
-        <v>153.665</v>
+        <v>135.267</v>
       </c>
       <c r="G42" t="n">
-        <v>450.4335</v>
+        <v>450.87925</v>
       </c>
       <c r="H42" t="n">
-        <v>522.2085</v>
+        <v>524.1704999999999</v>
       </c>
       <c r="I42" t="n">
-        <v>586.3235</v>
+        <v>586.7105</v>
       </c>
       <c r="J42" t="n">
-        <v>824.149</v>
+        <v>863.567</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>PV4READ</t>
+          <t>PV5READ</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3961,31 +3927,31 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>516.2293028571427</v>
+        <v>516.1147688721807</v>
       </c>
       <c r="E43" t="n">
-        <v>101.4163252213869</v>
+        <v>100.9659972237755</v>
       </c>
       <c r="F43" t="n">
-        <v>135.267</v>
+        <v>148.236</v>
       </c>
       <c r="G43" t="n">
-        <v>450.87925</v>
+        <v>450.93425</v>
       </c>
       <c r="H43" t="n">
-        <v>524.1704999999999</v>
+        <v>523.6215</v>
       </c>
       <c r="I43" t="n">
-        <v>586.7105</v>
+        <v>586.58075</v>
       </c>
       <c r="J43" t="n">
-        <v>863.567</v>
+        <v>815.691</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>PV5READ</t>
+          <t>PV6READ</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3995,31 +3961,31 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>516.1147688721807</v>
+        <v>515.6605506766905</v>
       </c>
       <c r="E44" t="n">
-        <v>100.9659972237755</v>
+        <v>101.6823572477042</v>
       </c>
       <c r="F44" t="n">
-        <v>148.236</v>
+        <v>141.771</v>
       </c>
       <c r="G44" t="n">
-        <v>450.93425</v>
+        <v>451.04725</v>
       </c>
       <c r="H44" t="n">
-        <v>523.6215</v>
+        <v>523.5955</v>
       </c>
       <c r="I44" t="n">
-        <v>586.58075</v>
+        <v>586.1455</v>
       </c>
       <c r="J44" t="n">
-        <v>815.691</v>
+        <v>833.183</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>PV6READ</t>
+          <t>PV7READ</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4029,31 +3995,31 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>515.6605506766905</v>
+        <v>516.6788655639087</v>
       </c>
       <c r="E45" t="n">
-        <v>101.6823572477042</v>
+        <v>101.5722005179233</v>
       </c>
       <c r="F45" t="n">
-        <v>141.771</v>
+        <v>167.126</v>
       </c>
       <c r="G45" t="n">
-        <v>451.04725</v>
+        <v>453.0225</v>
       </c>
       <c r="H45" t="n">
-        <v>523.5955</v>
+        <v>524.2585</v>
       </c>
       <c r="I45" t="n">
-        <v>586.1455</v>
+        <v>587.9165</v>
       </c>
       <c r="J45" t="n">
-        <v>833.183</v>
+        <v>841.978</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>PV7READ</t>
+          <t>PV8READ</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -4063,31 +4029,31 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>516.6788655639087</v>
+        <v>515.5469100751882</v>
       </c>
       <c r="E46" t="n">
-        <v>101.5722005179233</v>
+        <v>101.5603111094127</v>
       </c>
       <c r="F46" t="n">
-        <v>167.126</v>
+        <v>177.48</v>
       </c>
       <c r="G46" t="n">
-        <v>453.0225</v>
+        <v>450.7505</v>
       </c>
       <c r="H46" t="n">
-        <v>524.2585</v>
+        <v>523.7705000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>587.9165</v>
+        <v>585.671</v>
       </c>
       <c r="J46" t="n">
-        <v>841.978</v>
+        <v>814.1369999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>PV8READ</t>
+          <t>PV9READ</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -4097,31 +4063,31 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>515.5469100751882</v>
+        <v>515.8347753383468</v>
       </c>
       <c r="E47" t="n">
-        <v>101.5603111094127</v>
+        <v>101.3192716165778</v>
       </c>
       <c r="F47" t="n">
-        <v>177.48</v>
+        <v>158.571</v>
       </c>
       <c r="G47" t="n">
-        <v>450.7505</v>
+        <v>450.8795</v>
       </c>
       <c r="H47" t="n">
-        <v>523.7705000000001</v>
+        <v>523.4125</v>
       </c>
       <c r="I47" t="n">
-        <v>585.671</v>
+        <v>586.70075</v>
       </c>
       <c r="J47" t="n">
-        <v>814.1369999999999</v>
+        <v>831.461</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>PV9READ</t>
+          <t>PV10READ</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4131,31 +4097,31 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>515.8347753383468</v>
+        <v>515.4097321804519</v>
       </c>
       <c r="E48" t="n">
-        <v>101.3192716165778</v>
+        <v>101.4965141476164</v>
       </c>
       <c r="F48" t="n">
-        <v>158.571</v>
+        <v>141.403</v>
       </c>
       <c r="G48" t="n">
-        <v>450.8795</v>
+        <v>451.06475</v>
       </c>
       <c r="H48" t="n">
-        <v>523.4125</v>
+        <v>523.0595000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>586.70075</v>
+        <v>586.4005000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>831.461</v>
+        <v>796.754</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>PV10READ</t>
+          <t>PV1SCIE</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4165,31 +4131,31 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>515.4097321804519</v>
+        <v>520.4695747368448</v>
       </c>
       <c r="E49" t="n">
-        <v>101.4965141476164</v>
+        <v>98.55189708738203</v>
       </c>
       <c r="F49" t="n">
-        <v>141.403</v>
+        <v>132.724</v>
       </c>
       <c r="G49" t="n">
-        <v>451.06475</v>
+        <v>453.32225</v>
       </c>
       <c r="H49" t="n">
-        <v>523.0595000000001</v>
+        <v>526.322</v>
       </c>
       <c r="I49" t="n">
-        <v>586.4005000000001</v>
+        <v>589.8325</v>
       </c>
       <c r="J49" t="n">
-        <v>796.754</v>
+        <v>843.433</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>PV1SCIE</t>
+          <t>PV2SCIE</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4199,31 +4165,31 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>520.4695747368448</v>
+        <v>519.8686207518796</v>
       </c>
       <c r="E50" t="n">
-        <v>98.55189708738203</v>
+        <v>97.95275482698663</v>
       </c>
       <c r="F50" t="n">
-        <v>132.724</v>
+        <v>143.115</v>
       </c>
       <c r="G50" t="n">
-        <v>453.32225</v>
+        <v>455.2525</v>
       </c>
       <c r="H50" t="n">
-        <v>526.322</v>
+        <v>524.273</v>
       </c>
       <c r="I50" t="n">
-        <v>589.8325</v>
+        <v>589.3680000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>843.433</v>
+        <v>832.342</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>PV2SCIE</t>
+          <t>PV3SCIE</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4233,31 +4199,31 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>519.8686207518796</v>
+        <v>520.0075715789488</v>
       </c>
       <c r="E51" t="n">
-        <v>97.95275482698663</v>
+        <v>97.81231027328266</v>
       </c>
       <c r="F51" t="n">
-        <v>143.115</v>
+        <v>45.083</v>
       </c>
       <c r="G51" t="n">
-        <v>455.2525</v>
+        <v>453.67025</v>
       </c>
       <c r="H51" t="n">
-        <v>524.273</v>
+        <v>524.6465000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>589.3680000000001</v>
+        <v>589.59025</v>
       </c>
       <c r="J51" t="n">
-        <v>832.342</v>
+        <v>856.971</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>PV3SCIE</t>
+          <t>PV4SCIE</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4267,31 +4233,31 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>520.0075715789488</v>
+        <v>520.1140166917314</v>
       </c>
       <c r="E52" t="n">
-        <v>97.81231027328266</v>
+        <v>97.04257524344109</v>
       </c>
       <c r="F52" t="n">
-        <v>45.083</v>
+        <v>160.784</v>
       </c>
       <c r="G52" t="n">
-        <v>453.67025</v>
+        <v>455.2585</v>
       </c>
       <c r="H52" t="n">
-        <v>524.6465000000001</v>
+        <v>526.534</v>
       </c>
       <c r="I52" t="n">
-        <v>589.59025</v>
+        <v>588.833</v>
       </c>
       <c r="J52" t="n">
-        <v>856.971</v>
+        <v>805.201</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>PV4SCIE</t>
+          <t>PV5SCIE</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4301,31 +4267,31 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>520.1140166917314</v>
+        <v>520.3460624060152</v>
       </c>
       <c r="E53" t="n">
-        <v>97.04257524344109</v>
+        <v>96.7512778716214</v>
       </c>
       <c r="F53" t="n">
-        <v>160.784</v>
+        <v>154.925</v>
       </c>
       <c r="G53" t="n">
-        <v>455.2585</v>
+        <v>454.2205</v>
       </c>
       <c r="H53" t="n">
-        <v>526.534</v>
+        <v>525.2380000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>588.833</v>
+        <v>589.12275</v>
       </c>
       <c r="J53" t="n">
-        <v>805.201</v>
+        <v>844.845</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>PV5SCIE</t>
+          <t>PV6SCIE</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4335,31 +4301,31 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>520.3460624060152</v>
+        <v>520.4699867669169</v>
       </c>
       <c r="E54" t="n">
-        <v>96.7512778716214</v>
+        <v>97.36129148622193</v>
       </c>
       <c r="F54" t="n">
-        <v>154.925</v>
+        <v>113.511</v>
       </c>
       <c r="G54" t="n">
-        <v>454.2205</v>
+        <v>454.203</v>
       </c>
       <c r="H54" t="n">
-        <v>525.2380000000001</v>
+        <v>525.249</v>
       </c>
       <c r="I54" t="n">
-        <v>589.12275</v>
+        <v>588.0565</v>
       </c>
       <c r="J54" t="n">
-        <v>844.845</v>
+        <v>891.497</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>PV6SCIE</t>
+          <t>PV7SCIE</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4369,31 +4335,31 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>520.4699867669169</v>
+        <v>520.2672801503761</v>
       </c>
       <c r="E55" t="n">
-        <v>97.36129148622193</v>
+        <v>95.85073973465886</v>
       </c>
       <c r="F55" t="n">
-        <v>113.511</v>
+        <v>139.919</v>
       </c>
       <c r="G55" t="n">
-        <v>454.203</v>
+        <v>455.48375</v>
       </c>
       <c r="H55" t="n">
-        <v>525.249</v>
+        <v>524.3185</v>
       </c>
       <c r="I55" t="n">
-        <v>588.0565</v>
+        <v>588.13325</v>
       </c>
       <c r="J55" t="n">
-        <v>891.497</v>
+        <v>877.496</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>PV7SCIE</t>
+          <t>PV8SCIE</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4403,31 +4369,31 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>520.2672801503761</v>
+        <v>520.2699064661672</v>
       </c>
       <c r="E56" t="n">
-        <v>95.85073973465886</v>
+        <v>97.57723944644495</v>
       </c>
       <c r="F56" t="n">
-        <v>139.919</v>
+        <v>133.49</v>
       </c>
       <c r="G56" t="n">
-        <v>455.48375</v>
+        <v>455.62975</v>
       </c>
       <c r="H56" t="n">
-        <v>524.3185</v>
+        <v>525.1559999999999</v>
       </c>
       <c r="I56" t="n">
-        <v>588.13325</v>
+        <v>589.65275</v>
       </c>
       <c r="J56" t="n">
-        <v>877.496</v>
+        <v>834.603</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>PV8SCIE</t>
+          <t>PV9SCIE</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4437,31 +4403,31 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>520.2699064661672</v>
+        <v>519.9465524812032</v>
       </c>
       <c r="E57" t="n">
-        <v>97.57723944644495</v>
+        <v>96.93233936348439</v>
       </c>
       <c r="F57" t="n">
-        <v>133.49</v>
+        <v>162.62</v>
       </c>
       <c r="G57" t="n">
-        <v>455.62975</v>
+        <v>452.501</v>
       </c>
       <c r="H57" t="n">
-        <v>525.1559999999999</v>
+        <v>525.4775</v>
       </c>
       <c r="I57" t="n">
-        <v>589.65275</v>
+        <v>590.10925</v>
       </c>
       <c r="J57" t="n">
-        <v>834.603</v>
+        <v>825.915</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>PV9SCIE</t>
+          <t>PV10SCIE</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4471,92 +4437,58 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>519.9465524812032</v>
+        <v>521.5896918796988</v>
       </c>
       <c r="E58" t="n">
-        <v>96.93233936348439</v>
+        <v>97.53012517425522</v>
       </c>
       <c r="F58" t="n">
-        <v>162.62</v>
+        <v>171.676</v>
       </c>
       <c r="G58" t="n">
-        <v>452.501</v>
+        <v>455.73075</v>
       </c>
       <c r="H58" t="n">
-        <v>525.4775</v>
+        <v>526.081</v>
       </c>
       <c r="I58" t="n">
-        <v>590.10925</v>
+        <v>590.7405</v>
       </c>
       <c r="J58" t="n">
-        <v>825.915</v>
+        <v>854.952</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>PV10SCIE</t>
+          <t>ESCS</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6650</v>
+        <v>6626</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="D59" t="n">
-        <v>521.5896918796988</v>
+        <v>0.08621501660126726</v>
       </c>
       <c r="E59" t="n">
-        <v>97.53012517425522</v>
+        <v>0.7721318711317932</v>
       </c>
       <c r="F59" t="n">
-        <v>171.676</v>
+        <v>-3.0513</v>
       </c>
       <c r="G59" t="n">
-        <v>455.73075</v>
+        <v>-0.44455</v>
       </c>
       <c r="H59" t="n">
-        <v>526.081</v>
+        <v>0.1561</v>
       </c>
       <c r="I59" t="n">
-        <v>590.7405</v>
+        <v>0.65085</v>
       </c>
       <c r="J59" t="n">
-        <v>854.952</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>ESCS</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>6626</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.08621501660126726</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.7721318711317932</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-3.0513</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-0.44455</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.1561</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.65085</v>
-      </c>
-      <c r="J60" t="n">
         <v>3.9591</v>
       </c>
     </row>
@@ -4571,7 +4503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5547,27 +5479,41 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>PERSPECT</t>
+          <t>PV1MATH</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>4838</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>473.1427170318309</v>
+      </c>
+      <c r="E29" t="n">
+        <v>91.69872611702485</v>
+      </c>
+      <c r="F29" t="n">
+        <v>167.05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>408.07425</v>
+      </c>
+      <c r="H29" t="n">
+        <v>473.447</v>
+      </c>
+      <c r="I29" t="n">
+        <v>538.1510000000001</v>
+      </c>
+      <c r="J29" t="n">
+        <v>785.222</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PV1MATH</t>
+          <t>PV2MATH</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -5577,31 +5523,31 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>473.1427170318309</v>
+        <v>473.4157532038053</v>
       </c>
       <c r="E30" t="n">
-        <v>91.69872611702485</v>
+        <v>91.05818879674369</v>
       </c>
       <c r="F30" t="n">
-        <v>167.05</v>
+        <v>155.605</v>
       </c>
       <c r="G30" t="n">
-        <v>408.07425</v>
+        <v>408.36275</v>
       </c>
       <c r="H30" t="n">
-        <v>473.447</v>
+        <v>473.812</v>
       </c>
       <c r="I30" t="n">
-        <v>538.1510000000001</v>
+        <v>538.61025</v>
       </c>
       <c r="J30" t="n">
-        <v>785.222</v>
+        <v>771.545</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>PV2MATH</t>
+          <t>PV3MATH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5611,31 +5557,31 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>473.4157532038053</v>
+        <v>473.593870607689</v>
       </c>
       <c r="E31" t="n">
-        <v>91.05818879674369</v>
+        <v>91.68484318370975</v>
       </c>
       <c r="F31" t="n">
-        <v>155.605</v>
+        <v>145.403</v>
       </c>
       <c r="G31" t="n">
-        <v>408.36275</v>
+        <v>408.456</v>
       </c>
       <c r="H31" t="n">
-        <v>473.812</v>
+        <v>474.675</v>
       </c>
       <c r="I31" t="n">
-        <v>538.61025</v>
+        <v>538.807</v>
       </c>
       <c r="J31" t="n">
-        <v>771.545</v>
+        <v>842.375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>PV3MATH</t>
+          <t>PV4MATH</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5645,31 +5591,31 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>473.593870607689</v>
+        <v>473.9319630012411</v>
       </c>
       <c r="E32" t="n">
-        <v>91.68484318370975</v>
+        <v>91.70156170901967</v>
       </c>
       <c r="F32" t="n">
-        <v>145.403</v>
+        <v>126.684</v>
       </c>
       <c r="G32" t="n">
-        <v>408.456</v>
+        <v>407.91925</v>
       </c>
       <c r="H32" t="n">
-        <v>474.675</v>
+        <v>474.207</v>
       </c>
       <c r="I32" t="n">
-        <v>538.807</v>
+        <v>537.17175</v>
       </c>
       <c r="J32" t="n">
-        <v>842.375</v>
+        <v>730.3339999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>PV4MATH</t>
+          <t>PV5MATH</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5679,31 +5625,31 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>473.9319630012411</v>
+        <v>472.818460107481</v>
       </c>
       <c r="E33" t="n">
-        <v>91.70156170901967</v>
+        <v>91.82628201217672</v>
       </c>
       <c r="F33" t="n">
-        <v>126.684</v>
+        <v>175.96</v>
       </c>
       <c r="G33" t="n">
-        <v>407.91925</v>
+        <v>408.02</v>
       </c>
       <c r="H33" t="n">
-        <v>474.207</v>
+        <v>473.8355</v>
       </c>
       <c r="I33" t="n">
-        <v>537.17175</v>
+        <v>537.9662499999999</v>
       </c>
       <c r="J33" t="n">
-        <v>730.3339999999999</v>
+        <v>754.0650000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>PV5MATH</t>
+          <t>PV6MATH</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5713,31 +5659,31 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>472.818460107481</v>
+        <v>473.7378362959907</v>
       </c>
       <c r="E34" t="n">
-        <v>91.82628201217672</v>
+        <v>91.44319516122471</v>
       </c>
       <c r="F34" t="n">
-        <v>175.96</v>
+        <v>144.853</v>
       </c>
       <c r="G34" t="n">
-        <v>408.02</v>
+        <v>409.755</v>
       </c>
       <c r="H34" t="n">
-        <v>473.8355</v>
+        <v>473.4975</v>
       </c>
       <c r="I34" t="n">
-        <v>537.9662499999999</v>
+        <v>538.2317499999999</v>
       </c>
       <c r="J34" t="n">
-        <v>754.0650000000001</v>
+        <v>768.664</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>PV6MATH</t>
+          <t>PV7MATH</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5747,31 +5693,31 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>473.7378362959907</v>
+        <v>472.5036322860689</v>
       </c>
       <c r="E35" t="n">
-        <v>91.44319516122471</v>
+        <v>92.38856200173805</v>
       </c>
       <c r="F35" t="n">
-        <v>144.853</v>
+        <v>179.279</v>
       </c>
       <c r="G35" t="n">
-        <v>409.755</v>
+        <v>407.93425</v>
       </c>
       <c r="H35" t="n">
-        <v>473.4975</v>
+        <v>473.394</v>
       </c>
       <c r="I35" t="n">
-        <v>538.2317499999999</v>
+        <v>536.98225</v>
       </c>
       <c r="J35" t="n">
-        <v>768.664</v>
+        <v>778.881</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>PV7MATH</t>
+          <t>PV8MATH</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5781,31 +5727,31 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>472.5036322860689</v>
+        <v>473.2454305498125</v>
       </c>
       <c r="E36" t="n">
-        <v>92.38856200173805</v>
+        <v>92.1899365311056</v>
       </c>
       <c r="F36" t="n">
-        <v>179.279</v>
+        <v>176.673</v>
       </c>
       <c r="G36" t="n">
-        <v>407.93425</v>
+        <v>407.87725</v>
       </c>
       <c r="H36" t="n">
-        <v>473.394</v>
+        <v>471.498</v>
       </c>
       <c r="I36" t="n">
-        <v>536.98225</v>
+        <v>539.10925</v>
       </c>
       <c r="J36" t="n">
-        <v>778.881</v>
+        <v>755.067</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>PV8MATH</t>
+          <t>PV9MATH</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5815,31 +5761,31 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>473.2454305498125</v>
+        <v>474.0186982224044</v>
       </c>
       <c r="E37" t="n">
-        <v>92.1899365311056</v>
+        <v>92.09910393982108</v>
       </c>
       <c r="F37" t="n">
-        <v>176.673</v>
+        <v>125.872</v>
       </c>
       <c r="G37" t="n">
-        <v>407.87725</v>
+        <v>411.1335</v>
       </c>
       <c r="H37" t="n">
-        <v>471.498</v>
+        <v>472.639</v>
       </c>
       <c r="I37" t="n">
-        <v>539.10925</v>
+        <v>537.74775</v>
       </c>
       <c r="J37" t="n">
-        <v>755.067</v>
+        <v>756.952</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>PV9MATH</t>
+          <t>PV10MATH</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5849,31 +5795,31 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>474.0186982224044</v>
+        <v>472.7083255477468</v>
       </c>
       <c r="E38" t="n">
-        <v>92.09910393982108</v>
+        <v>93.00916858555546</v>
       </c>
       <c r="F38" t="n">
-        <v>125.872</v>
+        <v>181.312</v>
       </c>
       <c r="G38" t="n">
-        <v>411.1335</v>
+        <v>405.15025</v>
       </c>
       <c r="H38" t="n">
-        <v>472.639</v>
+        <v>474.25</v>
       </c>
       <c r="I38" t="n">
-        <v>537.74775</v>
+        <v>539.9665</v>
       </c>
       <c r="J38" t="n">
-        <v>756.952</v>
+        <v>805.569</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>PV10MATH</t>
+          <t>PV1READ</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5883,31 +5829,31 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>472.7083255477468</v>
+        <v>500.1501798263745</v>
       </c>
       <c r="E39" t="n">
-        <v>93.00916858555546</v>
+        <v>108.4548706755462</v>
       </c>
       <c r="F39" t="n">
-        <v>181.312</v>
+        <v>161.343</v>
       </c>
       <c r="G39" t="n">
-        <v>405.15025</v>
+        <v>423.4855</v>
       </c>
       <c r="H39" t="n">
-        <v>474.25</v>
+        <v>503.6375</v>
       </c>
       <c r="I39" t="n">
-        <v>539.9665</v>
+        <v>578.6754999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>805.569</v>
+        <v>868.87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>PV1READ</t>
+          <t>PV2READ</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5917,31 +5863,31 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>500.1501798263745</v>
+        <v>500.7907197188921</v>
       </c>
       <c r="E40" t="n">
-        <v>108.4548706755462</v>
+        <v>107.9547134447656</v>
       </c>
       <c r="F40" t="n">
-        <v>161.343</v>
+        <v>176.458</v>
       </c>
       <c r="G40" t="n">
-        <v>423.4855</v>
+        <v>424.55725</v>
       </c>
       <c r="H40" t="n">
-        <v>503.6375</v>
+        <v>505.2045</v>
       </c>
       <c r="I40" t="n">
-        <v>578.6754999999999</v>
+        <v>578.41875</v>
       </c>
       <c r="J40" t="n">
-        <v>868.87</v>
+        <v>898.478</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>PV2READ</t>
+          <t>PV3READ</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -5951,31 +5897,31 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>500.7907197188921</v>
+        <v>500.3032087639501</v>
       </c>
       <c r="E41" t="n">
-        <v>107.9547134447656</v>
+        <v>107.8981568502955</v>
       </c>
       <c r="F41" t="n">
-        <v>176.458</v>
+        <v>132.423</v>
       </c>
       <c r="G41" t="n">
-        <v>424.55725</v>
+        <v>423.16025</v>
       </c>
       <c r="H41" t="n">
-        <v>505.2045</v>
+        <v>503.8005</v>
       </c>
       <c r="I41" t="n">
-        <v>578.41875</v>
+        <v>577.8680000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>898.478</v>
+        <v>858.393</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>PV3READ</t>
+          <t>PV4READ</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -5985,31 +5931,31 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>500.3032087639501</v>
+        <v>501.0977629185612</v>
       </c>
       <c r="E42" t="n">
-        <v>107.8981568502955</v>
+        <v>108.4840738033442</v>
       </c>
       <c r="F42" t="n">
-        <v>132.423</v>
+        <v>140.293</v>
       </c>
       <c r="G42" t="n">
-        <v>423.16025</v>
+        <v>426.123</v>
       </c>
       <c r="H42" t="n">
-        <v>503.8005</v>
+        <v>503.061</v>
       </c>
       <c r="I42" t="n">
-        <v>577.8680000000001</v>
+        <v>579.30475</v>
       </c>
       <c r="J42" t="n">
-        <v>858.393</v>
+        <v>834.076</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>PV4READ</t>
+          <t>PV5READ</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -6019,31 +5965,31 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>501.0977629185612</v>
+        <v>500.4782782141392</v>
       </c>
       <c r="E43" t="n">
-        <v>108.4840738033442</v>
+        <v>108.0790098969139</v>
       </c>
       <c r="F43" t="n">
-        <v>140.293</v>
+        <v>137.737</v>
       </c>
       <c r="G43" t="n">
-        <v>426.123</v>
+        <v>423.179</v>
       </c>
       <c r="H43" t="n">
-        <v>503.061</v>
+        <v>504.4565</v>
       </c>
       <c r="I43" t="n">
-        <v>579.30475</v>
+        <v>579.021</v>
       </c>
       <c r="J43" t="n">
-        <v>834.076</v>
+        <v>853.4880000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>PV5READ</t>
+          <t>PV6READ</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -6053,31 +5999,31 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>500.4782782141392</v>
+        <v>500.9541097560985</v>
       </c>
       <c r="E44" t="n">
-        <v>108.0790098969139</v>
+        <v>108.1850285304035</v>
       </c>
       <c r="F44" t="n">
-        <v>137.737</v>
+        <v>128.111</v>
       </c>
       <c r="G44" t="n">
-        <v>423.179</v>
+        <v>424.43225</v>
       </c>
       <c r="H44" t="n">
-        <v>504.4565</v>
+        <v>504.438</v>
       </c>
       <c r="I44" t="n">
-        <v>579.021</v>
+        <v>579.3145</v>
       </c>
       <c r="J44" t="n">
-        <v>853.4880000000001</v>
+        <v>844.836</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>PV6READ</t>
+          <t>PV7READ</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -6087,31 +6033,31 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>500.9541097560985</v>
+        <v>499.8934723026051</v>
       </c>
       <c r="E45" t="n">
-        <v>108.1850285304035</v>
+        <v>107.7118674968956</v>
       </c>
       <c r="F45" t="n">
-        <v>128.111</v>
+        <v>148.739</v>
       </c>
       <c r="G45" t="n">
-        <v>424.43225</v>
+        <v>424.3825</v>
       </c>
       <c r="H45" t="n">
-        <v>504.438</v>
+        <v>502.563</v>
       </c>
       <c r="I45" t="n">
-        <v>579.3145</v>
+        <v>578.6410000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>844.836</v>
+        <v>815.275</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>PV7READ</t>
+          <t>PV8READ</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -6121,31 +6067,31 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>499.8934723026051</v>
+        <v>500.3027982637464</v>
       </c>
       <c r="E46" t="n">
-        <v>107.7118674968956</v>
+        <v>108.112811383837</v>
       </c>
       <c r="F46" t="n">
-        <v>148.739</v>
+        <v>170.907</v>
       </c>
       <c r="G46" t="n">
-        <v>424.3825</v>
+        <v>424.9495</v>
       </c>
       <c r="H46" t="n">
-        <v>502.563</v>
+        <v>503.9935</v>
       </c>
       <c r="I46" t="n">
-        <v>578.6410000000001</v>
+        <v>579.3597500000001</v>
       </c>
       <c r="J46" t="n">
-        <v>815.275</v>
+        <v>823.427</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>PV8READ</t>
+          <t>PV9READ</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -6155,31 +6101,31 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>500.3027982637464</v>
+        <v>501.0804710624225</v>
       </c>
       <c r="E47" t="n">
-        <v>108.112811383837</v>
+        <v>107.4320490326535</v>
       </c>
       <c r="F47" t="n">
-        <v>170.907</v>
+        <v>173.639</v>
       </c>
       <c r="G47" t="n">
-        <v>424.9495</v>
+        <v>425.999</v>
       </c>
       <c r="H47" t="n">
-        <v>503.9935</v>
+        <v>503.879</v>
       </c>
       <c r="I47" t="n">
-        <v>579.3597500000001</v>
+        <v>577.115</v>
       </c>
       <c r="J47" t="n">
-        <v>823.427</v>
+        <v>818.066</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>PV9READ</t>
+          <t>PV10READ</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -6189,31 +6135,31 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>501.0804710624225</v>
+        <v>500.6258604795373</v>
       </c>
       <c r="E48" t="n">
-        <v>107.4320490326535</v>
+        <v>107.9336122756183</v>
       </c>
       <c r="F48" t="n">
-        <v>173.639</v>
+        <v>167.822</v>
       </c>
       <c r="G48" t="n">
-        <v>425.999</v>
+        <v>426.09</v>
       </c>
       <c r="H48" t="n">
-        <v>503.879</v>
+        <v>503.5685</v>
       </c>
       <c r="I48" t="n">
-        <v>577.115</v>
+        <v>579.04</v>
       </c>
       <c r="J48" t="n">
-        <v>818.066</v>
+        <v>834.091</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>PV10READ</t>
+          <t>PV1SCIE</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -6223,31 +6169,31 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>500.6258604795373</v>
+        <v>497.2772007027682</v>
       </c>
       <c r="E49" t="n">
-        <v>107.9336122756183</v>
+        <v>98.44751180810077</v>
       </c>
       <c r="F49" t="n">
-        <v>167.822</v>
+        <v>178.147</v>
       </c>
       <c r="G49" t="n">
-        <v>426.09</v>
+        <v>427.5755</v>
       </c>
       <c r="H49" t="n">
-        <v>503.5685</v>
+        <v>497.5375</v>
       </c>
       <c r="I49" t="n">
-        <v>579.04</v>
+        <v>568.9255000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>834.091</v>
+        <v>783.9059999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>PV1SCIE</t>
+          <t>PV2SCIE</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -6257,31 +6203,31 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>497.2772007027682</v>
+        <v>496.885715171558</v>
       </c>
       <c r="E50" t="n">
-        <v>98.44751180810077</v>
+        <v>99.00924260246398</v>
       </c>
       <c r="F50" t="n">
-        <v>178.147</v>
+        <v>149.366</v>
       </c>
       <c r="G50" t="n">
-        <v>427.5755</v>
+        <v>428.39175</v>
       </c>
       <c r="H50" t="n">
-        <v>497.5375</v>
+        <v>497.7895</v>
       </c>
       <c r="I50" t="n">
-        <v>568.9255000000001</v>
+        <v>567.09025</v>
       </c>
       <c r="J50" t="n">
-        <v>783.9059999999999</v>
+        <v>822.443</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>PV2SCIE</t>
+          <t>PV3SCIE</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -6291,31 +6237,31 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>496.885715171558</v>
+        <v>497.0525733774295</v>
       </c>
       <c r="E51" t="n">
-        <v>99.00924260246398</v>
+        <v>100.6553843482415</v>
       </c>
       <c r="F51" t="n">
-        <v>149.366</v>
+        <v>146.705</v>
       </c>
       <c r="G51" t="n">
-        <v>428.39175</v>
+        <v>424.684</v>
       </c>
       <c r="H51" t="n">
-        <v>497.7895</v>
+        <v>498.5755</v>
       </c>
       <c r="I51" t="n">
-        <v>567.09025</v>
+        <v>570.42075</v>
       </c>
       <c r="J51" t="n">
-        <v>822.443</v>
+        <v>830.999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>PV3SCIE</t>
+          <t>PV4SCIE</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -6325,31 +6271,31 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>497.0525733774295</v>
+        <v>498.2020764778837</v>
       </c>
       <c r="E52" t="n">
-        <v>100.6553843482415</v>
+        <v>100.1287583005892</v>
       </c>
       <c r="F52" t="n">
-        <v>146.705</v>
+        <v>151.524</v>
       </c>
       <c r="G52" t="n">
-        <v>424.684</v>
+        <v>427.61375</v>
       </c>
       <c r="H52" t="n">
-        <v>498.5755</v>
+        <v>499.7885</v>
       </c>
       <c r="I52" t="n">
-        <v>570.42075</v>
+        <v>569.0382499999999</v>
       </c>
       <c r="J52" t="n">
-        <v>830.999</v>
+        <v>863.943</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>PV4SCIE</t>
+          <t>PV5SCIE</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -6359,31 +6305,31 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>498.2020764778837</v>
+        <v>497.5860494005782</v>
       </c>
       <c r="E53" t="n">
-        <v>100.1287583005892</v>
+        <v>99.41502311523006</v>
       </c>
       <c r="F53" t="n">
-        <v>151.524</v>
+        <v>184.134</v>
       </c>
       <c r="G53" t="n">
-        <v>427.61375</v>
+        <v>426.2225</v>
       </c>
       <c r="H53" t="n">
-        <v>499.7885</v>
+        <v>498.7265</v>
       </c>
       <c r="I53" t="n">
-        <v>569.0382499999999</v>
+        <v>569.1885</v>
       </c>
       <c r="J53" t="n">
-        <v>863.943</v>
+        <v>874.875</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>PV5SCIE</t>
+          <t>PV6SCIE</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -6393,31 +6339,31 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>497.5860494005782</v>
+        <v>498.9254855312122</v>
       </c>
       <c r="E54" t="n">
-        <v>99.41502311523006</v>
+        <v>98.71837479303471</v>
       </c>
       <c r="F54" t="n">
-        <v>184.134</v>
+        <v>136.548</v>
       </c>
       <c r="G54" t="n">
-        <v>426.2225</v>
+        <v>428.897</v>
       </c>
       <c r="H54" t="n">
-        <v>498.7265</v>
+        <v>500.8035</v>
       </c>
       <c r="I54" t="n">
-        <v>569.1885</v>
+        <v>572.06125</v>
       </c>
       <c r="J54" t="n">
-        <v>874.875</v>
+        <v>810.943</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>PV6SCIE</t>
+          <t>PV7SCIE</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -6427,31 +6373,31 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>498.9254855312122</v>
+        <v>496.9979617610592</v>
       </c>
       <c r="E55" t="n">
-        <v>98.71837479303471</v>
+        <v>100.5126474953448</v>
       </c>
       <c r="F55" t="n">
-        <v>136.548</v>
+        <v>203.256</v>
       </c>
       <c r="G55" t="n">
-        <v>428.897</v>
+        <v>425.07625</v>
       </c>
       <c r="H55" t="n">
-        <v>500.8035</v>
+        <v>499.836</v>
       </c>
       <c r="I55" t="n">
-        <v>572.06125</v>
+        <v>569.66175</v>
       </c>
       <c r="J55" t="n">
-        <v>810.943</v>
+        <v>794.538</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>PV7SCIE</t>
+          <t>PV8SCIE</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -6461,31 +6407,31 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>496.9979617610592</v>
+        <v>496.4963869367502</v>
       </c>
       <c r="E56" t="n">
-        <v>100.5126474953448</v>
+        <v>100.2918052576102</v>
       </c>
       <c r="F56" t="n">
-        <v>203.256</v>
+        <v>188.427</v>
       </c>
       <c r="G56" t="n">
-        <v>425.07625</v>
+        <v>425.392</v>
       </c>
       <c r="H56" t="n">
-        <v>499.836</v>
+        <v>497.9435</v>
       </c>
       <c r="I56" t="n">
-        <v>569.66175</v>
+        <v>570.0070000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>794.538</v>
+        <v>847.436</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>PV8SCIE</t>
+          <t>PV9SCIE</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -6495,31 +6441,31 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>496.4963869367502</v>
+        <v>498.6987949565931</v>
       </c>
       <c r="E57" t="n">
-        <v>100.2918052576102</v>
+        <v>98.44496789637954</v>
       </c>
       <c r="F57" t="n">
-        <v>188.427</v>
+        <v>151.015</v>
       </c>
       <c r="G57" t="n">
-        <v>425.392</v>
+        <v>427.97075</v>
       </c>
       <c r="H57" t="n">
-        <v>497.9435</v>
+        <v>499.424</v>
       </c>
       <c r="I57" t="n">
-        <v>570.0070000000001</v>
+        <v>570.70775</v>
       </c>
       <c r="J57" t="n">
-        <v>847.436</v>
+        <v>883.038</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>PV9SCIE</t>
+          <t>PV10SCIE</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -6529,92 +6475,58 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>498.6987949565931</v>
+        <v>497.5013143861095</v>
       </c>
       <c r="E58" t="n">
-        <v>98.44496789637954</v>
+        <v>99.71123305584587</v>
       </c>
       <c r="F58" t="n">
-        <v>151.015</v>
+        <v>109.361</v>
       </c>
       <c r="G58" t="n">
-        <v>427.97075</v>
+        <v>426.40175</v>
       </c>
       <c r="H58" t="n">
-        <v>499.424</v>
+        <v>499.3225</v>
       </c>
       <c r="I58" t="n">
-        <v>570.70775</v>
+        <v>570.5577500000001</v>
       </c>
       <c r="J58" t="n">
-        <v>883.038</v>
+        <v>845.769</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>PV10SCIE</t>
+          <t>ESCS</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4838</v>
+        <v>4767</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="D59" t="n">
-        <v>497.5013143861095</v>
+        <v>0.0629142227816238</v>
       </c>
       <c r="E59" t="n">
-        <v>99.71123305584587</v>
+        <v>1.01195477926751</v>
       </c>
       <c r="F59" t="n">
-        <v>109.361</v>
+        <v>-4.0953</v>
       </c>
       <c r="G59" t="n">
-        <v>426.40175</v>
+        <v>-0.6333500000000001</v>
       </c>
       <c r="H59" t="n">
-        <v>499.3225</v>
+        <v>0.1532</v>
       </c>
       <c r="I59" t="n">
-        <v>570.5577500000001</v>
+        <v>0.83535</v>
       </c>
       <c r="J59" t="n">
-        <v>845.769</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>ESCS</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4767</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.0629142227816238</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1.01195477926751</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-4.0953</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-0.6333500000000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.1532</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.83535</v>
-      </c>
-      <c r="J60" t="n">
         <v>3.2545</v>
       </c>
     </row>
